--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2456.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2456.xlsx
@@ -354,7 +354,7 @@
         <v>2.353316776967525</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.923834811659104</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2456.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2456.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.076499202841953</v>
+        <v>1.668551087379456</v>
       </c>
       <c r="B1">
-        <v>2.353316776967525</v>
+        <v>2.058618307113647</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.883825063705444</v>
       </c>
       <c r="D1">
-        <v>2.923834811659104</v>
+        <v>4.512523174285889</v>
       </c>
       <c r="E1">
-        <v>0.9646271822973453</v>
+        <v>0.7563785314559937</v>
       </c>
     </row>
   </sheetData>
